--- a/Black-White-Unit Test.xlsx
+++ b/Black-White-Unit Test.xlsx
@@ -1,44 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://w2shared-my.sharepoint.com/personal/dave_sushames01_student_wandw_ac_nz/Documents/Documents/Testing and Secure Coding/GroupAssignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shont\source\repos\LibraryApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="902" documentId="13_ncr:1_{1AAD63BB-95B9-4663-97C2-FE3996AEDBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBA746A5-6BD4-40FE-9AC8-5DA35DA47DBC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECF283D-0ABF-464E-9B99-68B1B0E591C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{84DD0BDD-34A0-4121-B413-A041E4D23E14}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" activeTab="1" xr2:uid="{84DD0BDD-34A0-4121-B413-A041E4D23E14}"/>
   </bookViews>
   <sheets>
     <sheet name="Black Box Testing" sheetId="3" r:id="rId1"/>
     <sheet name="White Box Testing" sheetId="2" r:id="rId2"/>
     <sheet name="Unit Testing" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="850">
   <si>
     <t>Black Box Testing</t>
   </si>
@@ -2653,9 +2642,6 @@
     <t xml:space="preserve">                                                                                   Total outcomes: 4</t>
   </si>
   <si>
-    <t>Probs need these?</t>
-  </si>
-  <si>
     <t>Click the Search button</t>
   </si>
   <si>
@@ -2692,9 +2678,6 @@
     <t>Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Do we need these?? - kinda unit </t>
-  </si>
-  <si>
     <t>Search Book functionality</t>
   </si>
   <si>
@@ -2720,6 +2703,30 @@
   </si>
   <si>
     <t>Filters the Book results to only contain those that contain "The"</t>
+  </si>
+  <si>
+    <t>ModelState Password error "Password is required" is shown and view is redisplayed.</t>
+  </si>
+  <si>
+    <t>User created successfully, and redirected to home/Index</t>
+  </si>
+  <si>
+    <t>Admin user created successfully, and redirected to home/Index</t>
+  </si>
+  <si>
+    <t>Statement N/A</t>
+  </si>
+  <si>
+    <t>Branch  N/A</t>
+  </si>
+  <si>
+    <t>Password hashing and verification perform correctly when the same password has been provided.</t>
+  </si>
+  <si>
+    <t>Logic reviewed but not executed.</t>
+  </si>
+  <si>
+    <t>Password verifcation fails for an inncorect password.</t>
   </si>
 </sst>
 </file>
@@ -2803,7 +2810,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2819,12 +2826,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3076,7 +3077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3133,9 +3134,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3159,9 +3157,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3199,6 +3194,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3268,9 +3281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3308,7 +3321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3414,7 +3427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3556,7 +3569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3566,38 +3579,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7054E7F-35B4-4301-A3E0-05785D130094}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="34.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -3626,7 +3639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3653,7 +3666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -3680,7 +3693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -3709,7 +3722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -3738,7 +3751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3767,7 +3780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -3796,7 +3809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -3825,7 +3838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -3854,7 +3867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -3883,7 +3896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -3912,7 +3925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -3941,7 +3954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
@@ -3970,7 +3983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>64</v>
       </c>
@@ -3999,7 +4012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
@@ -4026,7 +4039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>72</v>
       </c>
@@ -4053,7 +4066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>77</v>
       </c>
@@ -4080,7 +4093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>82</v>
       </c>
@@ -4107,7 +4120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>85</v>
       </c>
@@ -4134,7 +4147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>90</v>
       </c>
@@ -4161,7 +4174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>92</v>
       </c>
@@ -4188,7 +4201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>97</v>
       </c>
@@ -4215,7 +4228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>99</v>
       </c>
@@ -4242,7 +4255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>105</v>
       </c>
@@ -4269,7 +4282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>110</v>
       </c>
@@ -4296,7 +4309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>115</v>
       </c>
@@ -4323,7 +4336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>120</v>
       </c>
@@ -4350,7 +4363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>125</v>
       </c>
@@ -4377,7 +4390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>131</v>
       </c>
@@ -4404,7 +4417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>135</v>
       </c>
@@ -4431,7 +4444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>139</v>
       </c>
@@ -4458,7 +4471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>143</v>
       </c>
@@ -4485,7 +4498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>146</v>
       </c>
@@ -4512,7 +4525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>152</v>
       </c>
@@ -4539,7 +4552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>156</v>
       </c>
@@ -4566,7 +4579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>160</v>
       </c>
@@ -4593,7 +4606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>164</v>
       </c>
@@ -4620,12 +4633,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -4634,22 +4647,22 @@
         <v>101</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>843</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>172</v>
       </c>
@@ -4676,7 +4689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>177</v>
       </c>
@@ -4703,12 +4716,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -4717,22 +4730,22 @@
         <v>127</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>185</v>
       </c>
@@ -4759,7 +4772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>189</v>
       </c>
@@ -4786,12 +4799,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -4800,22 +4813,22 @@
         <v>148</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>200</v>
       </c>
@@ -4842,7 +4855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>204</v>
       </c>
@@ -4869,7 +4882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>208</v>
       </c>
@@ -4898,7 +4911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>213</v>
       </c>
@@ -4927,7 +4940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>215</v>
       </c>
@@ -4956,7 +4969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>219</v>
       </c>
@@ -4985,7 +4998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>222</v>
       </c>
@@ -5014,7 +5027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>227</v>
       </c>
@@ -5043,7 +5056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>231</v>
       </c>
@@ -5070,7 +5083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>235</v>
       </c>
@@ -5097,7 +5110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>239</v>
       </c>
@@ -5126,7 +5139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>242</v>
       </c>
@@ -5155,7 +5168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>243</v>
       </c>
@@ -5184,7 +5197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>246</v>
       </c>
@@ -5213,7 +5226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>248</v>
       </c>
@@ -5242,7 +5255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>253</v>
       </c>
@@ -5271,7 +5284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>257</v>
       </c>
@@ -5298,7 +5311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>260</v>
       </c>
@@ -5325,7 +5338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>262</v>
       </c>
@@ -5354,7 +5367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>266</v>
       </c>
@@ -5383,7 +5396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>269</v>
       </c>
@@ -5412,7 +5425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>270</v>
       </c>
@@ -5441,7 +5454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>271</v>
       </c>
@@ -5470,7 +5483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>274</v>
       </c>
@@ -5499,7 +5512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>275</v>
       </c>
@@ -5528,7 +5541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>278</v>
       </c>
@@ -5557,7 +5570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>284</v>
       </c>
@@ -5584,7 +5597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>285</v>
       </c>
@@ -5611,7 +5624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>286</v>
       </c>
@@ -5638,7 +5651,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>287</v>
       </c>
@@ -5651,12 +5664,12 @@
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>289</v>
       </c>
@@ -5669,7 +5682,7 @@
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>290</v>
       </c>
@@ -5682,7 +5695,7 @@
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>291</v>
       </c>
@@ -5695,7 +5708,7 @@
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>292</v>
       </c>
@@ -5708,7 +5721,7 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>293</v>
       </c>
@@ -5721,7 +5734,7 @@
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>294</v>
       </c>
@@ -5734,7 +5747,7 @@
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
@@ -5744,7 +5757,7 @@
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
@@ -5766,37 +5779,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34913591-753E-4C12-8F06-CC3CB8FC123F}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="47.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="26.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5822,2449 +5835,2451 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="51" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:8" ht="51" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="C4" s="31" t="s">
+    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>429</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="E5" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="F27" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G27" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H27" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="H34" s="28" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" s="31" t="s">
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>435</v>
-      </c>
-      <c r="H5" s="29" t="s">
+      <c r="D35" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="H45" s="28" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="C6" s="31" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="D46" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="H47" s="28" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="H7" s="29" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="H55" s="33" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="H8" s="29" t="s">
+    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="G56" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="34" t="s">
+        <v>635</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>640</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>637</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>642</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>637</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="H59" s="35" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="H9" s="29" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H60" s="35" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>452</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="H10" s="29" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="H62" s="35" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>456</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="H11" s="29" t="s">
+    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="H63" s="35" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="30" t="s">
+        <v>677</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>678</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>679</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>680</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>680</v>
+      </c>
+      <c r="H68" s="35" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="H12" s="29" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="30" t="s">
+        <v>681</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>682</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="H69" s="35" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="30" t="s">
+        <v>685</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>686</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>688</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>689</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>689</v>
+      </c>
+      <c r="H70" s="29" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="H13" s="30" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>691</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>695</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>699</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>700</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>703</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="30" t="s">
+        <v>705</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>708</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>711</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>712</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>714</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>716</v>
+      </c>
+      <c r="G78" s="30" t="s">
+        <v>716</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="30" t="s">
+        <v>717</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="H79" s="29" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="29" t="s">
+    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>723</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>725</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="H84" s="29" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>470</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="H16" s="29" t="s">
+    <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="30" t="s">
+        <v>735</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="H85" s="29" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="H17" s="29" t="s">
+    <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="G86" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G87" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G88" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H88" s="29" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="H19" s="29" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>678</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="H89" s="29" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>490</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>491</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="H20" s="29" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>682</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="G90" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="H90" s="29" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="G91" s="50" t="s">
+        <v>756</v>
+      </c>
+      <c r="H91" s="29" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="H21" s="29" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>760</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="G92" s="50" t="s">
+        <v>761</v>
+      </c>
+      <c r="H92" s="29" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="H22" s="29" t="s">
+    <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="G93" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="H93" s="29" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>504</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>507</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>504</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>508</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="H26" s="29" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="G94" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="H94" s="29" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>431</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>435</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>522</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>523</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>523</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>527</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>529</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>534</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>535</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>534</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>535</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>540</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>540</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>542</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>543</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>548</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>549</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>550</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>551</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>552</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>553</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>554</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>555</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>556</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>557</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>566</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>567</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>567</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>568</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>569</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>570</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>567</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>567</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>571</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>572</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>573</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>574</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>574</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>578</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>580</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>582</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>584</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>585</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>590</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>591</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>591</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>592</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>593</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>595</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>598</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>599</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>600</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>600</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>601</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>602</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>491</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>603</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>603</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>604</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>605</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>606</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>607</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>607</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>608</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>609</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>610</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>612</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>613</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>614</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>615</v>
-      </c>
-      <c r="F52" s="31" t="s">
-        <v>616</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>617</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>623</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>624</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>625</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
-        <v>626</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>627</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>628</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>629</v>
-      </c>
-      <c r="G55" s="34" t="s">
-        <v>630</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>631</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>632</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>633</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>634</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
-        <v>635</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>636</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>594</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>637</v>
-      </c>
-      <c r="E57" s="36" t="s">
-        <v>638</v>
-      </c>
-      <c r="F57" s="36" t="s">
-        <v>639</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>640</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>641</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>642</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="G58" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="H58" s="37" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>645</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>647</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="G59" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>649</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>650</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>651</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>652</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>653</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>654</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H61" s="37" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>657</v>
-      </c>
-      <c r="G62" s="31" t="s">
-        <v>657</v>
-      </c>
-      <c r="H62" s="37" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>658</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>661</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="G63" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
-        <v>663</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>664</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>665</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>666</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>666</v>
-      </c>
-      <c r="H64" s="37" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>669</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>670</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>671</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>672</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G66" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H66" s="37" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="B67" s="31" t="s">
-        <v>675</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>676</v>
-      </c>
-      <c r="F67" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G67" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H67" s="37" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>677</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>678</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>679</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>680</v>
-      </c>
-      <c r="G68" s="31" t="s">
-        <v>680</v>
-      </c>
-      <c r="H68" s="37" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
-        <v>681</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>682</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>683</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>684</v>
-      </c>
-      <c r="G69" s="31" t="s">
-        <v>684</v>
-      </c>
-      <c r="H69" s="37" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>686</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>595</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>689</v>
-      </c>
-      <c r="G70" s="31" t="s">
-        <v>689</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
-        <v>690</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>691</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>692</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>693</v>
-      </c>
-      <c r="G71" s="31" t="s">
-        <v>693</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>694</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>695</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>696</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="G72" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="H72" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>698</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>699</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>700</v>
-      </c>
-      <c r="F73" s="31" t="s">
-        <v>701</v>
-      </c>
-      <c r="G73" s="31" t="s">
-        <v>701</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>702</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>703</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>704</v>
-      </c>
-      <c r="F74" s="31" t="s">
-        <v>701</v>
-      </c>
-      <c r="G74" s="31" t="s">
-        <v>701</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>705</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>706</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D75" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>615</v>
-      </c>
-      <c r="F75" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="G75" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>707</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>708</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>709</v>
-      </c>
-      <c r="F76" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G76" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H76" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>710</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>711</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>712</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G77" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H77" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>713</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>714</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>715</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>716</v>
-      </c>
-      <c r="G78" s="31" t="s">
-        <v>716</v>
-      </c>
-      <c r="H78" s="30" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="G95" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="H95" s="29" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>717</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>718</v>
-      </c>
-      <c r="F79" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="G79" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="H79" s="30" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>719</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="C80" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="F80" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="G80" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F81" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="G81" s="31" t="s">
-        <v>727</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
-        <v>728</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>650</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>729</v>
-      </c>
-      <c r="F82" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G82" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
-        <v>730</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>653</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>731</v>
-      </c>
-      <c r="F83" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G83" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H83" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>733</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="G84" s="31" t="s">
-        <v>734</v>
-      </c>
-      <c r="H84" s="30" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
-        <v>735</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>664</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>736</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>737</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>738</v>
-      </c>
-      <c r="G85" s="31" t="s">
-        <v>739</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
-        <v>740</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>736</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>741</v>
-      </c>
-      <c r="F86" s="31" t="s">
-        <v>742</v>
-      </c>
-      <c r="G86" s="31" t="s">
-        <v>742</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
-        <v>743</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>672</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="E87" s="31" t="s">
-        <v>744</v>
-      </c>
-      <c r="F87" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G87" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H87" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
-        <v>745</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>675</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>746</v>
-      </c>
-      <c r="F88" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="G88" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="H88" s="30" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
-        <v>747</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>678</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>748</v>
-      </c>
-      <c r="F89" s="31" t="s">
-        <v>749</v>
-      </c>
-      <c r="G89" s="31" t="s">
-        <v>749</v>
-      </c>
-      <c r="H89" s="30" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
-        <v>750</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>682</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>683</v>
-      </c>
-      <c r="F90" s="31" t="s">
-        <v>684</v>
-      </c>
-      <c r="G90" s="31" t="s">
-        <v>684</v>
-      </c>
-      <c r="H90" s="30" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
-        <v>751</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>752</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>754</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>755</v>
-      </c>
-      <c r="F91" s="31" t="s">
-        <v>756</v>
-      </c>
-      <c r="G91" s="32" t="s">
-        <v>756</v>
-      </c>
-      <c r="H91" s="30" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
-        <v>757</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>758</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>759</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>760</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>761</v>
-      </c>
-      <c r="G92" s="32" t="s">
-        <v>761</v>
-      </c>
-      <c r="H92" s="30" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
-        <v>762</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>763</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>764</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>765</v>
-      </c>
-      <c r="F93" s="31" t="s">
-        <v>766</v>
-      </c>
-      <c r="G93" s="31" t="s">
-        <v>766</v>
-      </c>
-      <c r="H93" s="30" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
-        <v>767</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>768</v>
-      </c>
-      <c r="C94" s="31" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="C96" s="30" t="s">
         <v>769</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D96" s="30" t="s">
         <v>770</v>
       </c>
-      <c r="E94" s="31" t="s">
-        <v>771</v>
-      </c>
-      <c r="F94" s="31" t="s">
-        <v>772</v>
-      </c>
-      <c r="G94" s="31" t="s">
-        <v>772</v>
-      </c>
-      <c r="H94" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>774</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>769</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>770</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>775</v>
-      </c>
-      <c r="F95" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="G95" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="H95" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="B96" s="31" t="s">
-        <v>778</v>
-      </c>
-      <c r="C96" s="31" t="s">
-        <v>769</v>
-      </c>
-      <c r="D96" s="31" t="s">
-        <v>770</v>
-      </c>
-      <c r="E96" s="31" t="s">
+      <c r="E96" s="30" t="s">
         <v>779</v>
       </c>
-      <c r="F96" s="31" t="s">
+      <c r="F96" s="30" t="s">
         <v>780</v>
       </c>
-      <c r="G96" s="31" t="s">
+      <c r="G96" s="30" t="s">
         <v>780</v>
       </c>
-      <c r="H96" s="30" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H96" s="29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -8273,172 +8288,198 @@
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
+    <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="45" t="s">
         <v>781</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B98" s="45" t="s">
         <v>782</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C98" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D98" s="45" t="s">
         <v>783</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E98" s="45" t="s">
         <v>784</v>
       </c>
-      <c r="F99" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="G99" s="18"/>
-      <c r="H99" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
+      <c r="F98" s="45" t="s">
+        <v>842</v>
+      </c>
+      <c r="G98" s="45" t="s">
+        <v>842</v>
+      </c>
+      <c r="H98" s="46" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="45" t="s">
         <v>785</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B99" s="45" t="s">
         <v>786</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C99" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D99" s="45" t="s">
         <v>783</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E99" s="45" t="s">
         <v>787</v>
       </c>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
+      <c r="F99" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="G99" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="H99" s="46" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="45" t="s">
         <v>788</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B100" s="45" t="s">
         <v>789</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C100" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D100" s="45" t="s">
         <v>783</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E100" s="45" t="s">
         <v>790</v>
       </c>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+      <c r="F100" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="G100" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="H100" s="46" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="45" t="s">
         <v>791</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B101" s="45" t="s">
         <v>792</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C101" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D101" s="45" t="s">
         <v>783</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E101" s="45" t="s">
         <v>793</v>
       </c>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
+      <c r="F101" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="G101" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="H101" s="46" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="45" t="s">
         <v>794</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B102" s="45" t="s">
         <v>795</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C102" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D102" s="45" t="s">
         <v>783</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E102" s="45" t="s">
         <v>796</v>
       </c>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
+      <c r="F102" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="G102" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="H102" s="46" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="45" t="s">
         <v>797</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B103" s="45" t="s">
         <v>798</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C103" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D103" s="45" t="s">
         <v>783</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E103" s="45" t="s">
         <v>799</v>
       </c>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
+      <c r="F103" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="G103" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="H103" s="46" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="45" t="s">
         <v>800</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B104" s="45" t="s">
         <v>801</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C104" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D104" s="45" t="s">
         <v>783</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E104" s="45" t="s">
         <v>802</v>
       </c>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F104" s="45" t="s">
+        <v>843</v>
+      </c>
+      <c r="G104" s="45" t="s">
+        <v>844</v>
+      </c>
+      <c r="H104" s="46" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="18"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
@@ -8447,7 +8488,7 @@
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="18"/>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -8456,139 +8497,145 @@
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
+    <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="45" t="s">
         <v>803</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B108" s="45" t="s">
         <v>804</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C108" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="D108" s="45" t="s">
         <v>806</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E108" s="45" t="s">
         <v>807</v>
       </c>
-      <c r="F109" s="19" t="s">
-        <v>821</v>
-      </c>
-      <c r="G109" s="19"/>
-      <c r="H109" s="2" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
+      <c r="F108" s="48" t="s">
+        <v>847</v>
+      </c>
+      <c r="G108" s="49" t="s">
+        <v>848</v>
+      </c>
+      <c r="H108" s="46" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="45" t="s">
         <v>808</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B109" s="45" t="s">
         <v>809</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C109" s="45" t="s">
         <v>805</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D109" s="45" t="s">
         <v>810</v>
       </c>
-      <c r="E110" s="18" t="s">
+      <c r="E109" s="45" t="s">
         <v>811</v>
       </c>
+      <c r="F109" s="49" t="s">
+        <v>849</v>
+      </c>
+      <c r="G109" s="49" t="s">
+        <v>848</v>
+      </c>
+      <c r="H109" s="46" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
-      <c r="H110" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
-      <c r="D112" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="F112" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="G112" s="22" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D112" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="E112" s="23">
+        <v>37</v>
+      </c>
+      <c r="F112" s="23">
+        <v>103</v>
+      </c>
+      <c r="G112" s="36">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
-      <c r="D113" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="E113" s="24">
-        <v>37</v>
-      </c>
-      <c r="F113" s="24">
+      <c r="D113" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E113" s="23">
+        <v>74</v>
+      </c>
+      <c r="F113" s="23">
         <v>103</v>
       </c>
-      <c r="G113" s="38">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="36">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
-      <c r="D114" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="E114" s="24">
-        <v>74</v>
-      </c>
-      <c r="F114" s="24">
+      <c r="D114" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="E114" s="23">
+        <v>7</v>
+      </c>
+      <c r="F114" s="23">
         <v>103</v>
       </c>
-      <c r="G114" s="38">
-        <v>0.71799999999999997</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="36">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="18"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
-      <c r="D115" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="E115" s="24">
-        <v>7</v>
-      </c>
-      <c r="F115" s="24">
-        <v>103</v>
-      </c>
-      <c r="G115" s="38">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
@@ -8597,155 +8644,146 @@
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
+    <row r="117" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A117" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>813</v>
+      </c>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
     </row>
-    <row r="118" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A118" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="B118" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>812</v>
-      </c>
-      <c r="D118" s="25" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="D118" s="26" t="s">
         <v>813</v>
       </c>
       <c r="E118" s="18"/>
       <c r="F118" s="18"/>
       <c r="G118" s="18"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="B119" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>813</v>
+    <row r="119" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>815</v>
       </c>
       <c r="E119" s="18"/>
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
     </row>
-    <row r="120" spans="1:7" ht="91.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>814</v>
-      </c>
-      <c r="D120" s="24" t="s">
-        <v>815</v>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>813</v>
       </c>
       <c r="E120" s="18"/>
       <c r="F120" s="18"/>
       <c r="G120" s="18"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="26" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="B121" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>816</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="E121" s="43" t="s">
         <v>813</v>
       </c>
-      <c r="B121" s="27" t="s">
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="39"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="27" t="s">
         <v>813</v>
       </c>
-      <c r="C121" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="B122" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="C122" s="43" t="s">
-        <v>816</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="E122" s="45" t="s">
-        <v>813</v>
-      </c>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
-      <c r="B123" s="43"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="28" t="s">
-        <v>813</v>
-      </c>
-      <c r="E123" s="45"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
-      <c r="B124" s="43"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="28" t="s">
+      <c r="E122" s="43"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="39"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="27" t="s">
         <v>818</v>
       </c>
-      <c r="E124" s="45"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="28" t="s">
+      <c r="E123" s="43"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="39"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="27" t="s">
         <v>819</v>
       </c>
-      <c r="E125" s="45"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-    </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="27" t="s">
+      <c r="E124" s="43"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+    </row>
+    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="40"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="26" t="s">
         <v>820</v>
       </c>
-      <c r="E126" s="45"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="E122:E126"/>
-    <mergeCell ref="F122:F126"/>
-    <mergeCell ref="G122:G126"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="E121:E125"/>
+    <mergeCell ref="F121:F125"/>
+    <mergeCell ref="G121:G125"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8757,22 +8795,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAABC76-6758-4DE5-9192-7D2F0BD08C03}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>343</v>
       </c>
@@ -8792,7 +8830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>346</v>
       </c>
@@ -8812,7 +8850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>351</v>
       </c>
@@ -8832,7 +8870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>355</v>
       </c>
@@ -8852,7 +8890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>359</v>
       </c>
@@ -8872,7 +8910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>363</v>
       </c>
@@ -8892,7 +8930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>367</v>
       </c>
@@ -8912,7 +8950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>371</v>
       </c>
@@ -8932,7 +8970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>375</v>
       </c>
@@ -8952,7 +8990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>379</v>
       </c>
@@ -8972,7 +9010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>383</v>
       </c>
@@ -8992,7 +9030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>387</v>
       </c>
@@ -9012,7 +9050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>392</v>
       </c>
@@ -9032,7 +9070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>396</v>
       </c>
@@ -9052,7 +9090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>400</v>
       </c>
@@ -9072,7 +9110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>404</v>
       </c>
@@ -9092,7 +9130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>408</v>
       </c>
@@ -9112,7 +9150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>413</v>
       </c>
@@ -9132,7 +9170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>416</v>
       </c>
@@ -9152,12 +9190,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>421</v>
       </c>
